--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101226.8349246788</v>
+        <v>94790.3103490919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791249</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11411340.48351255</v>
+        <v>11410750.50412213</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>299.6014733625595</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>60.45940768512313</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226442</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>151.3839526226831</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.9435832523525</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>196.8399967687678</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>372.8059532490551</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>206.3842051374235</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>121.1314100736683</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1054,28 +1054,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>103.2564808222798</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10.01616551827719</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.1170434006889</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,7 +1145,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>336.7183592900674</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>63.45080330270152</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>173.9362576693453</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>120.096196884256</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.2759323675122</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>125.8194245297201</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>106.4741046921182</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>275.4811780227365</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>21.07003478336195</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>159.1657804156033</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059356</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T38" t="n">
         <v>90.90562710059311</v>
@@ -3983,19 +3983,19 @@
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190356</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1461.677125409557</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C2" t="n">
-        <v>1068.501623912487</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="D2" t="n">
-        <v>683.0604951291548</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="E2" t="n">
-        <v>683.0604951291548</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F2" t="n">
-        <v>670.2064606995366</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282644</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L2" t="n">
-        <v>188.1454323035831</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>726.4042173136763</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572952</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>2002.068496586572</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441269</v>
+        <v>2014.09222904407</v>
       </c>
       <c r="W2" t="n">
-        <v>1461.677125409557</v>
+        <v>1643.093194012358</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.677125409557</v>
+        <v>1253.640588945414</v>
       </c>
       <c r="Y2" t="n">
-        <v>1461.677125409557</v>
+        <v>857.1498798660157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948781</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653883</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1561.559659207234</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1023.317963460332</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.0037465358395</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.7007773287658</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>535.6029008107853</v>
+        <v>744.121989733479</v>
       </c>
       <c r="W4" t="n">
-        <v>535.6029008107853</v>
+        <v>460.7915876646566</v>
       </c>
       <c r="X4" t="n">
-        <v>301.5225785937683</v>
+        <v>226.7112654476397</v>
       </c>
       <c r="Y4" t="n">
-        <v>301.5225785937683</v>
+        <v>226.7112654476397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>982.9643570354971</v>
+        <v>1065.718421229996</v>
       </c>
       <c r="C5" t="n">
-        <v>982.9643570354971</v>
+        <v>1065.718421229996</v>
       </c>
       <c r="D5" t="n">
-        <v>606.3926870869566</v>
+        <v>1065.718421229996</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>663.1348963465409</v>
       </c>
       <c r="F5" t="n">
-        <v>190.955127773883</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>74.88432743274689</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.724509032205</v>
+        <v>588.487006042435</v>
       </c>
       <c r="N5" t="n">
-        <v>1747.535792669667</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1747.535792669667</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964323</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398922</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.41696210244</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.41696210244</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="X5" t="n">
-        <v>982.9643570354971</v>
+        <v>1462.209130309395</v>
       </c>
       <c r="Y5" t="n">
-        <v>982.9643570354971</v>
+        <v>1065.718421229996</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>835.1276348266383</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>684.4734043867305</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591879</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591879</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675997</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>986.9239692675997</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.8065182441987</v>
+        <v>534.630189423233</v>
       </c>
       <c r="C7" t="n">
-        <v>229.5070426661383</v>
+        <v>364.4250714892222</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865307</v>
+        <v>364.4250714892222</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865307</v>
+        <v>364.4250714892222</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865307</v>
+        <v>207.0991367021952</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865307</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.0145369355</v>
+        <v>719.8382081145343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.529915207016</v>
+        <v>632.5971671495322</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.354413709946</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2025.528950238728</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>1654.529915207016</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="X8" t="n">
-        <v>1654.529915207016</v>
+        <v>1429.582621940328</v>
       </c>
       <c r="Y8" t="n">
-        <v>1654.529915207016</v>
+        <v>1033.091912860929</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>884.6682721353168</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>714.463154201306</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>558.8300411038207</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119023</v>
+        <v>1890.088290684018</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768148</v>
+        <v>1568.709064333142</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>1255.064210696004</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937472</v>
+        <v>924.2769609587424</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699187</v>
+        <v>579.1787976349142</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411573</v>
+        <v>237.8123172691108</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2984.647095423699</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2984.647095423699</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2984.647095423699</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.444335538181</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.788005617431</v>
+        <v>2218.786761249221</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684226</v>
+        <v>2218.786761249221</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2347.971185375794</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>428.2599224835759</v>
+        <v>305.6629586599518</v>
       </c>
       <c r="C13" t="n">
-        <v>428.2599224835759</v>
+        <v>207.2541158721349</v>
       </c>
       <c r="D13" t="n">
-        <v>344.4230845322845</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="E13" t="n">
-        <v>344.4230845322845</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="F13" t="n">
-        <v>258.8934248914512</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1238.622505335453</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245438</v>
+        <v>1024.979988723548</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915619</v>
+        <v>830.7969186905659</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915619</v>
+        <v>619.2627917679374</v>
       </c>
       <c r="X13" t="n">
-        <v>579.5757085207388</v>
+        <v>456.9787446971145</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.2599224835759</v>
+        <v>305.6629586599518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1625.315396040535</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529489</v>
+        <v>1303.93616968966</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>990.2913160525213</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550884</v>
+        <v>659.5040663152595</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312599</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2751.985177299522</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="V14" t="n">
-        <v>2751.985177299522</v>
+        <v>2556.972116723526</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.985177299522</v>
+        <v>2278.708300538943</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>2278.708300538943</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445568</v>
+        <v>1954.013866605738</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424.5851241921881</v>
+        <v>219.875056675204</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1762814043711</v>
+        <v>219.875056675204</v>
       </c>
       <c r="D16" t="n">
-        <v>242.3394434530799</v>
+        <v>219.875056675204</v>
       </c>
       <c r="E16" t="n">
-        <v>158.5769064584762</v>
+        <v>219.875056675204</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584762</v>
+        <v>219.875056675204</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1423.345064175741</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1259.422287490168</v>
+        <v>1152.834603350705</v>
       </c>
       <c r="U16" t="n">
-        <v>1045.779770878263</v>
+        <v>939.1920867388001</v>
       </c>
       <c r="V16" t="n">
-        <v>851.5967008452815</v>
+        <v>745.0090167058182</v>
       </c>
       <c r="W16" t="n">
-        <v>851.5967008452815</v>
+        <v>533.4748897831897</v>
       </c>
       <c r="X16" t="n">
-        <v>689.3126537744585</v>
+        <v>371.1908427123667</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.9968677372956</v>
+        <v>219.875056675204</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5595,16 +5595,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.783730761083</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
         <v>1974.833293963354</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703123003</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446707</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.46733722469</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,19 +6154,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
         <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
         <v>2360.20170202598</v>
@@ -6242,13 +6242,13 @@
         <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6297,13 +6297,13 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
         <v>393.1040050097767</v>
@@ -6312,16 +6312,16 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,7 +6467,7 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
         <v>1925.441780118092</v>
@@ -6476,10 +6476,10 @@
         <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,7 +6488,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452358</v>
@@ -6497,10 +6497,10 @@
         <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
         <v>2489.561698640573</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6622,13 +6622,13 @@
         <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>143.5810516071554</v>
       </c>
       <c r="K34" t="n">
-        <v>245.409263406755</v>
+        <v>337.0682132920801</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076248</v>
+        <v>612.8479737408627</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729589</v>
+        <v>910.7916726541096</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831238</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600016</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,13 +7199,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7339,16 +7339,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924226</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229984</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960415</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7822,34 +7822,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>629.2256623067492</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998645</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562876</v>
+        <v>297.5876289994811</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399952</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>395.1515653491421</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269452</v>
+        <v>544.1202775014872</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>498.7523067719748</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>123.7997463922351</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>747.298629845933</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9170,7 +9170,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9243,19 +9243,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>613.9497439416879</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9483,22 +9483,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N24" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384012</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384012</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>569.9919810238538</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>569.9919810238538</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>75.82764986509696</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>30.0910871371896</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>44.21726859930483</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>36.46412438899615</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>75.64278518289728</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>20.72955426392696</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.6395758011823</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.117768503112956</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002696.68107839</v>
+        <v>1002395.90727151</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1002696.68107839</v>
+        <v>1002395.90727151</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889378.9218263592</v>
+        <v>889378.9218263595</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>889378.9218263595</v>
+        <v>889378.9218263596</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.267140035</v>
       </c>
       <c r="C2" t="n">
         <v>270498.2671400351</v>
       </c>
       <c r="D2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="E2" t="n">
-        <v>239038.5351366007</v>
+        <v>239038.535136601</v>
       </c>
       <c r="F2" t="n">
-        <v>239038.5351366007</v>
+        <v>239038.535136601</v>
       </c>
       <c r="G2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="H2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400353</v>
       </c>
       <c r="I2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="J2" t="n">
-        <v>270498.2671400354</v>
+        <v>270498.2671400355</v>
       </c>
       <c r="K2" t="n">
-        <v>270498.2671400355</v>
+        <v>270498.2671400356</v>
       </c>
       <c r="L2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="M2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="N2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="O2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="P2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277111</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.7885158943</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589418</v>
+        <v>86988.78851589428</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26445,7 +26445,7 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156466.7870810732</v>
+        <v>-153017.6626874189</v>
       </c>
       <c r="C6" t="n">
-        <v>25738.16121078287</v>
+        <v>20840.99434663623</v>
       </c>
       <c r="D6" t="n">
-        <v>20298.61923495875</v>
+        <v>12562.33001156696</v>
       </c>
       <c r="E6" t="n">
-        <v>-13258.83455317851</v>
+        <v>-13468.5660998679</v>
       </c>
       <c r="F6" t="n">
-        <v>98863.726920866</v>
+        <v>98653.99537417667</v>
       </c>
       <c r="G6" t="n">
-        <v>30155.46728035703</v>
+        <v>30155.4672803573</v>
       </c>
       <c r="H6" t="n">
         <v>77580.79281703912</v>
@@ -26543,25 +26543,25 @@
         <v>77580.79281703907</v>
       </c>
       <c r="J6" t="n">
-        <v>-135461.1247802462</v>
+        <v>-128944.8396256729</v>
       </c>
       <c r="K6" t="n">
-        <v>71341.02441425639</v>
+        <v>71341.02441425656</v>
       </c>
       <c r="L6" t="n">
-        <v>16158.43547963491</v>
+        <v>12109.59826916281</v>
       </c>
       <c r="M6" t="n">
-        <v>35379.9633574161</v>
+        <v>34328.26834622785</v>
       </c>
       <c r="N6" t="n">
-        <v>77580.79281703912</v>
+        <v>77580.79281703901</v>
       </c>
       <c r="O6" t="n">
-        <v>49813.09877426797</v>
+        <v>49813.09877426794</v>
       </c>
       <c r="P6" t="n">
-        <v>77580.7928170391</v>
+        <v>77580.79281703901</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551365</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>109.4296545943174</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>278.2263335183936</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434351</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>36.03005425080536</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.41235525203577</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,13 +27591,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>66.47955495861623</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>8.78076424644388</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>206.3412889478984</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.656667631066128</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65.24658593239086</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>156.5553478432717</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>230.1267030814098</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>1.967381913449401</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>119.9051352016867</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668914</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29095,7 +29095,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
         <v>130.3599693155844</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901203</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566775</v>
+        <v>81.10808140893339</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,46 +29904,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224725</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254432</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30411,19 +30411,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668868</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,11 +30648,11 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>128.2979821082783</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>480.1071709689651</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285893927</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069756</v>
+        <v>205.2005069501692</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950348</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>244.8501181082169</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776333</v>
+        <v>451.7331554521753</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>349.6338154341907</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>32.81159323632111</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>661.9265169917663</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35963,19 +35963,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.2621850527989</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634530071</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453562</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N24" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,22 +36522,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101035</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495123</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495123</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833447</v>
+        <v>43.49509683160011</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791168</v>
+        <v>76.79385455031338</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993543</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37707,19 +37707,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529611</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>249.3850182462365</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
